--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft1135575-my.sharepoint.com/personal/angus_chu_epiphroncapital_com/Documents/文件/Research/Streamlit Apps/IPO Streamlit Update/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft1135575-my.sharepoint.com/personal/angus_chu_epiphroncapital_com/Documents/文件/Research/Streamlit Apps/IPO Streamlit Update/data_updater_sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{01811119-2510-406A-9394-AF35987AFCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E73406E-580B-4C3A-9949-1DA6D9AC3DA1}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{01811119-2510-406A-9394-AF35987AFCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F4F17C8-A513-4DE9-BC82-9F6C0F3FEC12}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6408,9 +6408,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="24" width="9" customWidth="1"/>
+    <col min="26" max="26" width="9" customWidth="1"/>
+    <col min="28" max="51" width="9" customWidth="1"/>
+    <col min="52" max="52" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -58579,7 +58591,7 @@
         <v>0.6</v>
       </c>
       <c r="Y396">
-        <v>0</v>
+        <v>0.50373999999999997</v>
       </c>
       <c r="Z396">
         <v>0.24940000000000001</v>
@@ -59335,7 +59347,7 @@
         <v>0.53</v>
       </c>
       <c r="Y405">
-        <v>0</v>
+        <v>-0.23780000000000001</v>
       </c>
       <c r="Z405">
         <v>4.8899999999999999E-2</v>
